--- a/LOR Project_22jan23.xlsx
+++ b/LOR Project_22jan23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benanakca/Workspace/GIT/AURA_REFERENCE_LETTER/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\GIT\AURA_REFERENCE_LETTER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ED8785-F868-1B40-93BE-1BFEAAA85E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B10E4D-AB59-4C45-89C8-BF646605BA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographic_with_manager" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Word list" sheetId="3" r:id="rId3"/>
     <sheet name="Citations" sheetId="5" r:id="rId4"/>
     <sheet name="Demographics" sheetId="1" r:id="rId5"/>
+    <sheet name="Word list (2)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,41 +52,140 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Yorum yazışması]
+Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
+Açıklama:
     Grimm 2020</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Yorum yazışması]
+Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
+Açıklama:
     Grimm 2020</t>
       </text>
     </comment>
     <comment ref="C1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Yorum yazışması]
+Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
+Açıklama:
     Messner and Shimahara 2008</t>
       </text>
     </comment>
     <comment ref="D1" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Yorum yazışması]
+Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
+Açıklama:
     Messner and Shimahara 2008</t>
       </text>
     </comment>
     <comment ref="E1" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Yorum yazışması]
+Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
+Açıklama:
+    Messner and Shimahara 2008</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={6F337FF4-FC90-4B28-B5DF-763C64558E58}</author>
+    <author>tc={889A97E3-10D5-416B-9CA2-8CE2DF9FF459}</author>
+    <author>tc={47F62016-B863-4438-999B-7BFAFD5E7A8B}</author>
+    <author>tc={BBD4E678-CFBA-483D-B227-CFCFF2474453}</author>
+    <author>tc={BDE08330-0B2C-46A1-BA39-0FECEFCF14B2}</author>
+    <author>tc={6BDE666E-9520-4B54-806F-220CE8EB9A80}</author>
+    <author>tc={81AB9FDC-5D43-4BE8-ACF9-413B919A5EBA}</author>
+    <author>tc={B6526229-3DFA-4504-B33E-3DC6E09E0F73}</author>
+    <author>tc={3103C284-856D-4403-8853-1B07B57ADD66}</author>
+    <author>tc={ECA5B9C0-2499-43D3-9339-54D20212A8EC}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6F337FF4-FC90-4B28-B5DF-763C64558E58}">
+      <text>
+        <t>[Yorum yazışması]
+Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
+Açıklama:
+    Grimm 2020</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{889A97E3-10D5-416B-9CA2-8CE2DF9FF459}">
+      <text>
+        <t>[Yorum yazışması]
+Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
+Açıklama:
+    Grimm 2020</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{47F62016-B863-4438-999B-7BFAFD5E7A8B}">
+      <text>
+        <t>[Yorum yazışması]
+Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
+Açıklama:
+    Messner and Shimahara 2008</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{BBD4E678-CFBA-483D-B227-CFCFF2474453}">
+      <text>
+        <t>[Yorum yazışması]
+Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
+Açıklama:
+    Messner and Shimahara 2008</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{BDE08330-0B2C-46A1-BA39-0FECEFCF14B2}">
+      <text>
+        <t>[Yorum yazışması]
+Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
+Açıklama:
+    Messner and Shimahara 2008</t>
+      </text>
+    </comment>
+    <comment ref="A53" authorId="5" shapeId="0" xr:uid="{6BDE666E-9520-4B54-806F-220CE8EB9A80}">
+      <text>
+        <t>[Yorum yazışması]
+Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
+Açıklama:
+    Grimm 2020</t>
+      </text>
+    </comment>
+    <comment ref="B53" authorId="6" shapeId="0" xr:uid="{81AB9FDC-5D43-4BE8-ACF9-413B919A5EBA}">
+      <text>
+        <t>[Yorum yazışması]
+Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
+Açıklama:
+    Grimm 2020</t>
+      </text>
+    </comment>
+    <comment ref="C53" authorId="7" shapeId="0" xr:uid="{B6526229-3DFA-4504-B33E-3DC6E09E0F73}">
+      <text>
+        <t>[Yorum yazışması]
+Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
+Açıklama:
+    Messner and Shimahara 2008</t>
+      </text>
+    </comment>
+    <comment ref="D53" authorId="8" shapeId="0" xr:uid="{3103C284-856D-4403-8853-1B07B57ADD66}">
+      <text>
+        <t>[Yorum yazışması]
+Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
+Açıklama:
+    Messner and Shimahara 2008</t>
+      </text>
+    </comment>
+    <comment ref="E53" authorId="9" shapeId="0" xr:uid="{ECA5B9C0-2499-43D3-9339-54D20212A8EC}">
+      <text>
+        <t>[Yorum yazışması]
+Excel sürümünüz bu yorum yazışmasını okumanıza izin veriyor, ancak dosya daha yeni bir Excel sürümünde açılırsa, yapılan düzenlemeler kaldırılır. Daha fazla bilgi: https://go.microsoft.com/fwlink/?linkid=870924.
+Açıklama:
     Messner and Shimahara 2008</t>
       </text>
     </comment>
@@ -94,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="331">
   <si>
     <t>Male</t>
   </si>
@@ -728,13 +828,373 @@
   </si>
   <si>
     <t>average word count</t>
+  </si>
+  <si>
+    <t>Accomplish*</t>
+  </si>
+  <si>
+    <t>Authoritative</t>
+  </si>
+  <si>
+    <t>Bold</t>
+  </si>
+  <si>
+    <t>Capable</t>
+  </si>
+  <si>
+    <t>Commanding</t>
+  </si>
+  <si>
+    <t>Competitor</t>
+  </si>
+  <si>
+    <t>Directive</t>
+  </si>
+  <si>
+    <t>Dominant</t>
+  </si>
+  <si>
+    <t>Driven</t>
+  </si>
+  <si>
+    <t>Effective</t>
+  </si>
+  <si>
+    <t>Empower*</t>
+  </si>
+  <si>
+    <t>Enforce*</t>
+  </si>
+  <si>
+    <t>Enterprising</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>Expertise</t>
+  </si>
+  <si>
+    <t>Forceful</t>
+  </si>
+  <si>
+    <t>Govern*</t>
+  </si>
+  <si>
+    <t>Headstrong</t>
+  </si>
+  <si>
+    <t>High-achiever</t>
+  </si>
+  <si>
+    <t>Influence*</t>
+  </si>
+  <si>
+    <t>Initiative</t>
+  </si>
+  <si>
+    <t>Innovator*</t>
+  </si>
+  <si>
+    <t>Inspire*</t>
+  </si>
+  <si>
+    <t>Managerial</t>
+  </si>
+  <si>
+    <t>Motivator</t>
+  </si>
+  <si>
+    <t>Pioneer*</t>
+  </si>
+  <si>
+    <t>Powerful</t>
+  </si>
+  <si>
+    <t>Proactive</t>
+  </si>
+  <si>
+    <t>Proficient</t>
+  </si>
+  <si>
+    <t>Progressive</t>
+  </si>
+  <si>
+    <t>Resilient</t>
+  </si>
+  <si>
+    <t>Resourceful</t>
+  </si>
+  <si>
+    <t>Savvy</t>
+  </si>
+  <si>
+    <t>Self-discipline*</t>
+  </si>
+  <si>
+    <t>Self-sufficient</t>
+  </si>
+  <si>
+    <t>Spearhead</t>
+  </si>
+  <si>
+    <t>Strategic</t>
+  </si>
+  <si>
+    <t>Superior</t>
+  </si>
+  <si>
+    <t>Take-charge</t>
+  </si>
+  <si>
+    <t>Visionary</t>
+  </si>
+  <si>
+    <t>Accommodating</t>
+  </si>
+  <si>
+    <t>Altruistic</t>
+  </si>
+  <si>
+    <t>Approachable</t>
+  </si>
+  <si>
+    <t>Benevolent</t>
+  </si>
+  <si>
+    <t>Collaborative</t>
+  </si>
+  <si>
+    <t>Comforting</t>
+  </si>
+  <si>
+    <t>Compassionate</t>
+  </si>
+  <si>
+    <t>Empathetic</t>
+  </si>
+  <si>
+    <t>Encouraging</t>
+  </si>
+  <si>
+    <t>Harmonious</t>
+  </si>
+  <si>
+    <t>Humble</t>
+  </si>
+  <si>
+    <t>Inclusive</t>
+  </si>
+  <si>
+    <t>Interpersonal</t>
+  </si>
+  <si>
+    <t>Inviting</t>
+  </si>
+  <si>
+    <t>Mediative</t>
+  </si>
+  <si>
+    <t>Merciful</t>
+  </si>
+  <si>
+    <t>Nourishing</t>
+  </si>
+  <si>
+    <t>Paternal</t>
+  </si>
+  <si>
+    <t>Peaceful</t>
+  </si>
+  <si>
+    <t>Pleasant</t>
+  </si>
+  <si>
+    <t>Polite</t>
+  </si>
+  <si>
+    <t>Receptive</t>
+  </si>
+  <si>
+    <t>Reconciling</t>
+  </si>
+  <si>
+    <t>Supportive</t>
+  </si>
+  <si>
+    <t>Thoughtful</t>
+  </si>
+  <si>
+    <t>Tolerant</t>
+  </si>
+  <si>
+    <t>Unifying</t>
+  </si>
+  <si>
+    <t>Welcoming</t>
+  </si>
+  <si>
+    <t>Persistent</t>
+  </si>
+  <si>
+    <t>Methodical</t>
+  </si>
+  <si>
+    <t>Steadfast</t>
+  </si>
+  <si>
+    <t>Punctilious</t>
+  </si>
+  <si>
+    <t>Unwavering</t>
+  </si>
+  <si>
+    <t>Rigorous</t>
+  </si>
+  <si>
+    <t>Detail-oriented</t>
+  </si>
+  <si>
+    <t>Assiduous</t>
+  </si>
+  <si>
+    <t>Stalwart</t>
+  </si>
+  <si>
+    <t>Precise</t>
+  </si>
+  <si>
+    <t>Persevering</t>
+  </si>
+  <si>
+    <t>Committed</t>
+  </si>
+  <si>
+    <t>Focused</t>
+  </si>
+  <si>
+    <t>Prudent</t>
+  </si>
+  <si>
+    <t>Structured</t>
+  </si>
+  <si>
+    <t>Scrupulous</t>
+  </si>
+  <si>
+    <t>Unrelenting</t>
+  </si>
+  <si>
+    <t>Studious</t>
+  </si>
+  <si>
+    <t>Zealous</t>
+  </si>
+  <si>
+    <t>Distinguished</t>
+  </si>
+  <si>
+    <t>Remarkable</t>
+  </si>
+  <si>
+    <t>Peerless</t>
+  </si>
+  <si>
+    <t>Incomparable</t>
+  </si>
+  <si>
+    <t>Premier</t>
+  </si>
+  <si>
+    <t>Pioneering</t>
+  </si>
+  <si>
+    <t>Unmatched</t>
+  </si>
+  <si>
+    <t>Elite</t>
+  </si>
+  <si>
+    <t>Notable</t>
+  </si>
+  <si>
+    <t>Brilliant</t>
+  </si>
+  <si>
+    <t>Masterful</t>
+  </si>
+  <si>
+    <t>Virtuoso</t>
+  </si>
+  <si>
+    <t>Trailblazing</t>
+  </si>
+  <si>
+    <t>Paramount</t>
+  </si>
+  <si>
+    <t>Foremost</t>
+  </si>
+  <si>
+    <t>Matchless</t>
+  </si>
+  <si>
+    <t>Accomplished</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Preeminent</t>
+  </si>
+  <si>
+    <t>Eminent</t>
+  </si>
+  <si>
+    <t>Nurturing</t>
+  </si>
+  <si>
+    <t>Caring</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>Warm</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Helpful</t>
+  </si>
+  <si>
+    <t>Understanding</t>
+  </si>
+  <si>
+    <t>Analytical</t>
+  </si>
+  <si>
+    <t>Systematic</t>
+  </si>
+  <si>
+    <t>Detail-focused</t>
+  </si>
+  <si>
+    <t>Accurate</t>
+  </si>
+  <si>
+    <t>Consistent</t>
+  </si>
+  <si>
+    <t>Technical</t>
+  </si>
+  <si>
+    <t>Generated using ChatGPT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,8 +1237,34 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -827,8 +1313,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="82">
+  <borders count="84">
     <border>
       <left/>
       <right/>
@@ -1885,12 +2377,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2142,6 +2658,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2175,41 +2754,83 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2223,6 +2844,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2244,120 +2868,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2422,6 +2954,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>26283</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>43907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{922698DF-A4DF-483D-A13C-918529BA93B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6492875" y="231775"/>
+          <a:ext cx="4049008" cy="4203157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Lindsay Yang" id="{EE67279F-53DA-4647-949B-F64B6019AA5B}" userId="bd65cecbb3152c13" providerId="Windows Live"/>
@@ -2429,9 +3010,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Teması">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2469,7 +3050,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2575,7 +3156,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2717,7 +3298,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2743,81 +3324,116 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2022-06-21T18:26:47.55" personId="{EE67279F-53DA-4647-949B-F64B6019AA5B}" id="{6F337FF4-FC90-4B28-B5DF-763C64558E58}">
+    <text>Grimm 2020</text>
+  </threadedComment>
+  <threadedComment ref="B1" dT="2022-06-21T18:26:53.93" personId="{EE67279F-53DA-4647-949B-F64B6019AA5B}" id="{889A97E3-10D5-416B-9CA2-8CE2DF9FF459}">
+    <text>Grimm 2020</text>
+  </threadedComment>
+  <threadedComment ref="C1" dT="2022-06-21T18:09:15.93" personId="{EE67279F-53DA-4647-949B-F64B6019AA5B}" id="{47F62016-B863-4438-999B-7BFAFD5E7A8B}">
+    <text>Messner and Shimahara 2008</text>
+  </threadedComment>
+  <threadedComment ref="D1" dT="2022-06-21T18:09:15.93" personId="{EE67279F-53DA-4647-949B-F64B6019AA5B}" id="{BBD4E678-CFBA-483D-B227-CFCFF2474453}">
+    <text>Messner and Shimahara 2008</text>
+  </threadedComment>
+  <threadedComment ref="E1" dT="2022-06-21T18:09:15.93" personId="{EE67279F-53DA-4647-949B-F64B6019AA5B}" id="{BDE08330-0B2C-46A1-BA39-0FECEFCF14B2}">
+    <text>Messner and Shimahara 2008</text>
+  </threadedComment>
+  <threadedComment ref="A53" dT="2022-06-21T18:26:47.55" personId="{EE67279F-53DA-4647-949B-F64B6019AA5B}" id="{6BDE666E-9520-4B54-806F-220CE8EB9A80}">
+    <text>Grimm 2020</text>
+  </threadedComment>
+  <threadedComment ref="B53" dT="2022-06-21T18:26:53.93" personId="{EE67279F-53DA-4647-949B-F64B6019AA5B}" id="{81AB9FDC-5D43-4BE8-ACF9-413B919A5EBA}">
+    <text>Grimm 2020</text>
+  </threadedComment>
+  <threadedComment ref="C53" dT="2022-06-21T18:09:15.93" personId="{EE67279F-53DA-4647-949B-F64B6019AA5B}" id="{B6526229-3DFA-4504-B33E-3DC6E09E0F73}">
+    <text>Messner and Shimahara 2008</text>
+  </threadedComment>
+  <threadedComment ref="D53" dT="2022-06-21T18:09:15.93" personId="{EE67279F-53DA-4647-949B-F64B6019AA5B}" id="{3103C284-856D-4403-8853-1B07B57ADD66}">
+    <text>Messner and Shimahara 2008</text>
+  </threadedComment>
+  <threadedComment ref="E53" dT="2022-06-21T18:09:15.93" personId="{EE67279F-53DA-4647-949B-F64B6019AA5B}" id="{ECA5B9C0-2499-43D3-9339-54D20212A8EC}">
+    <text>Messner and Shimahara 2008</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505C4AF0-857C-415D-A894-319537C075A6}">
   <dimension ref="B2:V30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.5" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" customWidth="1"/>
-    <col min="22" max="22" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="22" max="22" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="2:22" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="111"/>
-      <c r="C4" s="114" t="s">
+    <row r="3" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B4" s="132"/>
+      <c r="C4" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="137" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="116" t="s">
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="117" t="s">
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="119"/>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="112"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="120" t="s">
+      <c r="M4" s="138"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="140"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="133"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="121"/>
-      <c r="F5" s="122" t="s">
+      <c r="E5" s="142"/>
+      <c r="F5" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="123"/>
-      <c r="H5" s="120" t="s">
+      <c r="G5" s="143"/>
+      <c r="H5" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="121"/>
-      <c r="J5" s="122" t="s">
+      <c r="I5" s="142"/>
+      <c r="J5" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="123"/>
-      <c r="L5" s="124" t="s">
+      <c r="K5" s="143"/>
+      <c r="L5" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="121"/>
-      <c r="N5" s="122" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="129"/>
-    </row>
-    <row r="6" spans="2:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="113"/>
+      <c r="O5" s="127"/>
+    </row>
+    <row r="6" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="134"/>
       <c r="C6" s="37" t="s">
         <v>6</v>
       </c>
@@ -2858,7 +3474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
         <v>174</v>
       </c>
@@ -2894,7 +3510,7 @@
         <v>71.726190476190396</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
         <v>173</v>
       </c>
@@ -2930,18 +3546,18 @@
         <v>71.525096525096501</v>
       </c>
       <c r="R8" s="96"/>
-      <c r="S8" s="125" t="s">
+      <c r="S8" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="T8" s="127" t="s">
+      <c r="T8" s="124" t="s">
         <v>188</v>
       </c>
-      <c r="U8" s="128"/>
+      <c r="U8" s="125"/>
       <c r="V8" s="107" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="2:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
@@ -2959,7 +3575,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="18"/>
       <c r="R9" s="97"/>
-      <c r="S9" s="126"/>
+      <c r="S9" s="123"/>
       <c r="T9" s="105" t="s">
         <v>0</v>
       </c>
@@ -2968,7 +3584,7 @@
       </c>
       <c r="V9" s="108"/>
     </row>
-    <row r="10" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="23" t="s">
         <v>175</v>
       </c>
@@ -3017,7 +3633,7 @@
       </c>
       <c r="V10" s="108"/>
     </row>
-    <row r="11" spans="2:22" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>172</v>
       </c>
@@ -3068,7 +3684,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="2:22" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23" t="s">
         <v>10</v>
       </c>
@@ -3119,7 +3735,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>11</v>
       </c>
@@ -3137,7 +3753,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="18"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
         <v>1</v>
       </c>
@@ -3173,7 +3789,7 @@
         <v>80.303030303030297</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="s">
         <v>0</v>
       </c>
@@ -3209,7 +3825,7 @@
         <v>69.296116504854297</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>12</v>
       </c>
@@ -3226,20 +3842,20 @@
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
       <c r="O16" s="18"/>
-      <c r="S16" s="181" t="s">
+      <c r="S16" s="121" t="s">
         <v>205</v>
       </c>
-      <c r="T16" s="181" t="s">
+      <c r="T16" s="121" t="s">
         <v>206</v>
       </c>
-      <c r="U16" s="181" t="s">
+      <c r="U16" s="121" t="s">
         <v>207</v>
       </c>
-      <c r="V16" s="181" t="s">
+      <c r="V16" s="121" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
         <v>106</v>
       </c>
@@ -3276,7 +3892,7 @@
       <c r="O17">
         <v>67.875647668393697</v>
       </c>
-      <c r="R17" s="181" t="s">
+      <c r="R17" s="121" t="s">
         <v>209</v>
       </c>
       <c r="S17">
@@ -3292,7 +3908,7 @@
         <v>10.011904761904759</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
         <v>107</v>
       </c>
@@ -3329,7 +3945,7 @@
       <c r="O18">
         <v>78.735632183907995</v>
       </c>
-      <c r="R18" s="181" t="s">
+      <c r="R18" s="121" t="s">
         <v>210</v>
       </c>
       <c r="S18">
@@ -3345,7 +3961,7 @@
         <v>181.76488095238099</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
         <v>108</v>
       </c>
@@ -3383,7 +3999,7 @@
         <v>76.923076923076906</v>
       </c>
     </row>
-    <row r="20" spans="2:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="24" t="s">
         <v>191</v>
       </c>
@@ -3421,7 +4037,7 @@
         <v>71.25</v>
       </c>
     </row>
-    <row r="21" spans="2:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="24" t="s">
         <v>192</v>
       </c>
@@ -3455,24 +4071,24 @@
         <v>62.564</v>
       </c>
     </row>
-    <row r="22" spans="2:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H22" s="61"/>
     </row>
-    <row r="23" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="130" t="s">
+    <row r="23" spans="2:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="131"/>
-      <c r="E23" s="132" t="s">
+      <c r="D23" s="129"/>
+      <c r="E23" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="133"/>
+      <c r="F23" s="131"/>
       <c r="G23" s="86" t="s">
         <v>187</v>
       </c>
       <c r="H23" s="42"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="51"/>
       <c r="C24" s="55" t="s">
         <v>6</v>
@@ -3492,7 +4108,7 @@
       <c r="O24" s="35"/>
       <c r="P24" s="35"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="52" t="s">
         <v>106</v>
       </c>
@@ -3514,7 +4130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="52" t="s">
         <v>107</v>
       </c>
@@ -3536,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="52" t="s">
         <v>108</v>
       </c>
@@ -3558,7 +4174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="52" t="s">
         <v>191</v>
       </c>
@@ -3580,7 +4196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="53" t="s">
         <v>109</v>
       </c>
@@ -3602,7 +4218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="54" t="s">
         <v>185</v>
       </c>
@@ -3622,11 +4238,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:G4"/>
@@ -3637,6 +4248,11 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3646,114 +4262,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:X107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M100" sqref="M100"/>
+    <sheetView showGridLines="0" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="68" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="68" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.5" style="68" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" style="68" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="68" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="68" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" style="68" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="68" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="68" customWidth="1"/>
-    <col min="15" max="16" width="11.5" style="68" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" style="68" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.1640625" style="68" customWidth="1"/>
-    <col min="19" max="19" width="9.33203125" style="68" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.6640625" style="68" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" style="68" customWidth="1"/>
-    <col min="22" max="24" width="11.5" style="68" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.1640625" style="68"/>
+    <col min="1" max="1" width="3.42578125" style="68" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="68" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.42578125" style="68" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="68" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="68" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="68" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="68" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="68" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="68" customWidth="1"/>
+    <col min="15" max="16" width="11.42578125" style="68" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="68" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" style="68" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" style="68" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="68" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" style="68" customWidth="1"/>
+    <col min="22" max="24" width="11.42578125" style="68" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="68"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:24" ht="105" x14ac:dyDescent="0.25">
       <c r="B2" s="67" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B4" s="134"/>
-      <c r="C4" s="136" t="s">
+    <row r="3" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="169"/>
+      <c r="C4" s="171" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="137"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="137"/>
-      <c r="R4" s="157"/>
-      <c r="S4" s="148"/>
-      <c r="T4" s="149"/>
-      <c r="U4" s="149"/>
-      <c r="V4" s="149"/>
-      <c r="W4" s="149"/>
-      <c r="X4" s="150"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="135"/>
-      <c r="C5" s="138" t="s">
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="172"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="172"/>
+      <c r="R4" s="158"/>
+      <c r="S4" s="167"/>
+      <c r="T4" s="168"/>
+      <c r="U4" s="168"/>
+      <c r="V4" s="168"/>
+      <c r="W4" s="168"/>
+      <c r="X4" s="173"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="170"/>
+      <c r="C5" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138" t="s">
+      <c r="D5" s="174"/>
+      <c r="E5" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138" t="s">
+      <c r="F5" s="174"/>
+      <c r="G5" s="174" t="s">
         <v>157</v>
       </c>
-      <c r="H5" s="139" t="s">
+      <c r="H5" s="175" t="s">
         <v>156</v>
       </c>
-      <c r="J5" s="135"/>
-      <c r="K5" s="138" t="s">
+      <c r="J5" s="170"/>
+      <c r="K5" s="174" t="s">
         <v>179</v>
       </c>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138" t="s">
+      <c r="L5" s="174"/>
+      <c r="M5" s="174" t="s">
         <v>181</v>
       </c>
-      <c r="N5" s="138"/>
-      <c r="O5" s="153" t="s">
+      <c r="N5" s="174"/>
+      <c r="O5" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="P5" s="151" t="s">
+      <c r="P5" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="R5" s="158"/>
-      <c r="S5" s="146" t="s">
+      <c r="R5" s="159"/>
+      <c r="S5" s="161" t="s">
         <v>180</v>
       </c>
-      <c r="T5" s="147"/>
-      <c r="U5" s="146" t="s">
+      <c r="T5" s="162"/>
+      <c r="U5" s="161" t="s">
         <v>182</v>
       </c>
-      <c r="V5" s="147"/>
-      <c r="W5" s="153" t="s">
+      <c r="V5" s="162"/>
+      <c r="W5" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="X5" s="139" t="s">
+      <c r="X5" s="175" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="B6" s="135"/>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="170"/>
       <c r="C6" s="70" t="s">
         <v>6</v>
       </c>
@@ -3766,9 +4382,9 @@
       <c r="F6" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="138"/>
-      <c r="H6" s="139"/>
-      <c r="J6" s="135"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="175"/>
+      <c r="J6" s="170"/>
       <c r="K6" s="70" t="s">
         <v>6</v>
       </c>
@@ -3781,9 +4397,9 @@
       <c r="N6" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="154"/>
-      <c r="P6" s="152"/>
-      <c r="R6" s="159"/>
+      <c r="O6" s="164"/>
+      <c r="P6" s="166"/>
+      <c r="R6" s="160"/>
       <c r="S6" s="70" t="s">
         <v>6</v>
       </c>
@@ -3796,10 +4412,10 @@
       <c r="V6" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="W6" s="154"/>
-      <c r="X6" s="139"/>
-    </row>
-    <row r="7" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="W6" s="164"/>
+      <c r="X6" s="175"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="69" t="s">
         <v>158</v>
       </c>
@@ -3864,7 +4480,7 @@
         <v>0.80614176139159899</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="69" t="s">
         <v>159</v>
       </c>
@@ -3929,7 +4545,7 @@
         <v>0.50799698863412102</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="69" t="s">
         <v>113</v>
       </c>
@@ -3994,7 +4610,7 @@
         <v>2.85987048958064E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="69" t="s">
         <v>131</v>
       </c>
@@ -4059,7 +4675,7 @@
         <v>0.13017936955531401</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="69" t="s">
         <v>152</v>
       </c>
@@ -4124,7 +4740,7 @@
         <v>0.53803262722269696</v>
       </c>
     </row>
-    <row r="12" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="69" t="s">
         <v>153</v>
       </c>
@@ -4189,7 +4805,7 @@
         <v>1.7608763137178698E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:24" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="78" t="s">
         <v>190</v>
       </c>
@@ -4254,7 +4870,7 @@
         <v>3.9943285088649902E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="68" t="s">
         <v>194</v>
       </c>
@@ -4319,7 +4935,7 @@
         <v>0.39372949183277101</v>
       </c>
     </row>
-    <row r="15" spans="2:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
       <c r="M15" s="42"/>
@@ -4333,7 +4949,7 @@
       <c r="W15" s="42"/>
       <c r="X15" s="42"/>
     </row>
-    <row r="16" spans="2:24" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M16" s="42"/>
       <c r="N16" s="42"/>
       <c r="S16" s="42"/>
@@ -4341,80 +4957,80 @@
       <c r="U16" s="42"/>
       <c r="V16" s="42"/>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B17" s="134"/>
-      <c r="C17" s="136" t="s">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17" s="169"/>
+      <c r="C17" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="137"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="136"/>
-      <c r="P17" s="137"/>
-      <c r="R17" s="157"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="149"/>
-      <c r="U17" s="149"/>
-      <c r="V17" s="149"/>
-      <c r="W17" s="149"/>
-      <c r="X17" s="150"/>
-    </row>
-    <row r="18" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="135"/>
-      <c r="C18" s="138" t="s">
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="172"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="171"/>
+      <c r="L17" s="171"/>
+      <c r="M17" s="171"/>
+      <c r="N17" s="171"/>
+      <c r="O17" s="171"/>
+      <c r="P17" s="172"/>
+      <c r="R17" s="158"/>
+      <c r="S17" s="167"/>
+      <c r="T17" s="168"/>
+      <c r="U17" s="168"/>
+      <c r="V17" s="168"/>
+      <c r="W17" s="168"/>
+      <c r="X17" s="173"/>
+    </row>
+    <row r="18" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="170"/>
+      <c r="C18" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138" t="s">
+      <c r="D18" s="174"/>
+      <c r="E18" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138" t="s">
+      <c r="F18" s="174"/>
+      <c r="G18" s="174" t="s">
         <v>157</v>
       </c>
-      <c r="H18" s="139" t="s">
+      <c r="H18" s="175" t="s">
         <v>156</v>
       </c>
-      <c r="J18" s="135"/>
-      <c r="K18" s="138" t="s">
+      <c r="J18" s="170"/>
+      <c r="K18" s="174" t="s">
         <v>179</v>
       </c>
-      <c r="L18" s="138"/>
-      <c r="M18" s="138" t="s">
+      <c r="L18" s="174"/>
+      <c r="M18" s="174" t="s">
         <v>180</v>
       </c>
-      <c r="N18" s="138"/>
-      <c r="O18" s="153" t="s">
+      <c r="N18" s="174"/>
+      <c r="O18" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="P18" s="151" t="s">
+      <c r="P18" s="165" t="s">
         <v>156</v>
       </c>
-      <c r="R18" s="158"/>
-      <c r="S18" s="146" t="s">
+      <c r="R18" s="159"/>
+      <c r="S18" s="161" t="s">
         <v>193</v>
       </c>
-      <c r="T18" s="147"/>
-      <c r="U18" s="146" t="s">
+      <c r="T18" s="162"/>
+      <c r="U18" s="161" t="s">
         <v>182</v>
       </c>
-      <c r="V18" s="147"/>
-      <c r="W18" s="153" t="s">
+      <c r="V18" s="162"/>
+      <c r="W18" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="X18" s="139" t="s">
+      <c r="X18" s="175" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="2:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="B19" s="135"/>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B19" s="170"/>
       <c r="C19" s="70" t="s">
         <v>6</v>
       </c>
@@ -4427,9 +5043,9 @@
       <c r="F19" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="138"/>
-      <c r="H19" s="139"/>
-      <c r="J19" s="135"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="175"/>
+      <c r="J19" s="170"/>
       <c r="K19" s="70" t="s">
         <v>6</v>
       </c>
@@ -4442,9 +5058,9 @@
       <c r="N19" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="O19" s="154"/>
-      <c r="P19" s="152"/>
-      <c r="R19" s="159"/>
+      <c r="O19" s="164"/>
+      <c r="P19" s="166"/>
+      <c r="R19" s="160"/>
       <c r="S19" s="70" t="s">
         <v>6</v>
       </c>
@@ -4457,10 +5073,10 @@
       <c r="V19" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="W19" s="154"/>
-      <c r="X19" s="139"/>
-    </row>
-    <row r="20" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="W19" s="164"/>
+      <c r="X19" s="175"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="69" t="s">
         <v>158</v>
       </c>
@@ -4525,7 +5141,7 @@
         <v>0.79291987994251101</v>
       </c>
     </row>
-    <row r="21" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="69" t="s">
         <v>159</v>
       </c>
@@ -4590,7 +5206,7 @@
         <v>9.6171979138577602E-4</v>
       </c>
     </row>
-    <row r="22" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="69" t="s">
         <v>113</v>
       </c>
@@ -4655,7 +5271,7 @@
         <v>0.85611421505617002</v>
       </c>
     </row>
-    <row r="23" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="69" t="s">
         <v>131</v>
       </c>
@@ -4720,7 +5336,7 @@
         <v>2.0477064788281501E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="69" t="s">
         <v>152</v>
       </c>
@@ -4785,7 +5401,7 @@
         <v>0.89276012103289504</v>
       </c>
     </row>
-    <row r="25" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="69" t="s">
         <v>153</v>
       </c>
@@ -4842,7 +5458,7 @@
       <c r="W25" s="74"/>
       <c r="X25" s="75"/>
     </row>
-    <row r="26" spans="2:24" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="78" t="s">
         <v>190</v>
       </c>
@@ -4907,7 +5523,7 @@
         <v>0.20567258764483401</v>
       </c>
     </row>
-    <row r="27" spans="2:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:24" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="68" t="s">
         <v>194</v>
       </c>
@@ -4972,7 +5588,7 @@
         <v>0.58194587052563795</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C28" s="42"/>
       <c r="D28" s="42"/>
       <c r="E28" s="42"/>
@@ -4990,54 +5606,54 @@
       <c r="W28"/>
       <c r="X28"/>
     </row>
-    <row r="29" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="42"/>
       <c r="D29" s="42"/>
       <c r="E29" s="42"/>
       <c r="F29" s="42"/>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B30" s="134"/>
-      <c r="C30" s="136" t="s">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B30" s="169"/>
+      <c r="C30" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="136"/>
-      <c r="L30" s="137"/>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B31" s="135"/>
-      <c r="C31" s="138" t="s">
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="171"/>
+      <c r="J30" s="171"/>
+      <c r="K30" s="171"/>
+      <c r="L30" s="172"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B31" s="170"/>
+      <c r="C31" s="174" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138" t="s">
+      <c r="D31" s="174"/>
+      <c r="E31" s="174" t="s">
         <v>167</v>
       </c>
-      <c r="F31" s="138"/>
-      <c r="G31" s="138" t="s">
+      <c r="F31" s="174"/>
+      <c r="G31" s="174" t="s">
         <v>108</v>
       </c>
-      <c r="H31" s="138"/>
-      <c r="I31" s="138" t="s">
+      <c r="H31" s="174"/>
+      <c r="I31" s="174" t="s">
         <v>168</v>
       </c>
-      <c r="J31" s="138"/>
-      <c r="K31" s="138" t="s">
+      <c r="J31" s="174"/>
+      <c r="K31" s="174" t="s">
         <v>157</v>
       </c>
-      <c r="L31" s="139" t="s">
+      <c r="L31" s="175" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="2:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="B32" s="135"/>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B32" s="170"/>
       <c r="C32" s="70" t="s">
         <v>6</v>
       </c>
@@ -5062,10 +5678,10 @@
       <c r="J32" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="138"/>
-      <c r="L32" s="139"/>
-    </row>
-    <row r="33" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="K32" s="174"/>
+      <c r="L32" s="175"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" s="69" t="s">
         <v>158</v>
       </c>
@@ -5096,7 +5712,7 @@
       <c r="K33" s="71"/>
       <c r="L33" s="72"/>
     </row>
-    <row r="34" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" s="69" t="s">
         <v>159</v>
       </c>
@@ -5127,7 +5743,7 @@
       <c r="K34" s="71"/>
       <c r="L34" s="72"/>
     </row>
-    <row r="35" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35" s="69" t="s">
         <v>113</v>
       </c>
@@ -5158,7 +5774,7 @@
       <c r="K35" s="71"/>
       <c r="L35" s="72"/>
     </row>
-    <row r="36" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36" s="69" t="s">
         <v>131</v>
       </c>
@@ -5189,7 +5805,7 @@
       <c r="K36" s="71"/>
       <c r="L36" s="72"/>
     </row>
-    <row r="37" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" s="69" t="s">
         <v>152</v>
       </c>
@@ -5220,7 +5836,7 @@
       <c r="K37" s="71"/>
       <c r="L37" s="72"/>
     </row>
-    <row r="38" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B38" s="69" t="s">
         <v>153</v>
       </c>
@@ -5251,7 +5867,7 @@
       <c r="K38" s="71"/>
       <c r="L38" s="72"/>
     </row>
-    <row r="39" spans="2:24" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="78" t="s">
         <v>190</v>
       </c>
@@ -5282,7 +5898,7 @@
       <c r="K39" s="79"/>
       <c r="L39" s="84"/>
     </row>
-    <row r="40" spans="2:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:24" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="68" t="s">
         <v>194</v>
       </c>
@@ -5311,7 +5927,7 @@
         <v>0.22148394241417399</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C41" s="42"/>
       <c r="D41" s="42"/>
       <c r="E41" s="42"/>
@@ -5321,7 +5937,7 @@
       <c r="I41" s="42"/>
       <c r="J41" s="42"/>
     </row>
-    <row r="42" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="42"/>
       <c r="D42" s="42"/>
       <c r="E42" s="42"/>
@@ -5331,84 +5947,84 @@
       <c r="I42" s="42"/>
       <c r="J42" s="42"/>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B43" s="134"/>
-      <c r="C43" s="136" t="s">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B43" s="169"/>
+      <c r="C43" s="171" t="s">
         <v>177</v>
       </c>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="136"/>
-      <c r="H43" s="136"/>
-      <c r="I43" s="136"/>
-      <c r="J43" s="136"/>
-      <c r="K43" s="136"/>
-      <c r="L43" s="137"/>
-      <c r="N43" s="134"/>
-      <c r="O43" s="148" t="s">
+      <c r="D43" s="171"/>
+      <c r="E43" s="171"/>
+      <c r="F43" s="171"/>
+      <c r="G43" s="171"/>
+      <c r="H43" s="171"/>
+      <c r="I43" s="171"/>
+      <c r="J43" s="171"/>
+      <c r="K43" s="171"/>
+      <c r="L43" s="172"/>
+      <c r="N43" s="169"/>
+      <c r="O43" s="167" t="s">
         <v>178</v>
       </c>
-      <c r="P43" s="149"/>
-      <c r="Q43" s="149"/>
-      <c r="R43" s="149"/>
-      <c r="S43" s="149"/>
-      <c r="T43" s="149"/>
-      <c r="U43" s="149"/>
-      <c r="V43" s="149"/>
-      <c r="W43" s="149"/>
-      <c r="X43" s="150"/>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B44" s="135"/>
-      <c r="C44" s="138" t="s">
+      <c r="P43" s="168"/>
+      <c r="Q43" s="168"/>
+      <c r="R43" s="168"/>
+      <c r="S43" s="168"/>
+      <c r="T43" s="168"/>
+      <c r="U43" s="168"/>
+      <c r="V43" s="168"/>
+      <c r="W43" s="168"/>
+      <c r="X43" s="173"/>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B44" s="170"/>
+      <c r="C44" s="174" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="138"/>
-      <c r="E44" s="138" t="s">
+      <c r="D44" s="174"/>
+      <c r="E44" s="174" t="s">
         <v>167</v>
       </c>
-      <c r="F44" s="138"/>
-      <c r="G44" s="138" t="s">
+      <c r="F44" s="174"/>
+      <c r="G44" s="174" t="s">
         <v>108</v>
       </c>
-      <c r="H44" s="138"/>
-      <c r="I44" s="138" t="s">
+      <c r="H44" s="174"/>
+      <c r="I44" s="174" t="s">
         <v>168</v>
       </c>
-      <c r="J44" s="138"/>
-      <c r="K44" s="138" t="s">
+      <c r="J44" s="174"/>
+      <c r="K44" s="174" t="s">
         <v>157</v>
       </c>
-      <c r="L44" s="139" t="s">
+      <c r="L44" s="175" t="s">
         <v>156</v>
       </c>
-      <c r="N44" s="135"/>
-      <c r="O44" s="146" t="s">
+      <c r="N44" s="170"/>
+      <c r="O44" s="161" t="s">
         <v>106</v>
       </c>
-      <c r="P44" s="147"/>
-      <c r="Q44" s="146" t="s">
+      <c r="P44" s="162"/>
+      <c r="Q44" s="161" t="s">
         <v>167</v>
       </c>
-      <c r="R44" s="147"/>
-      <c r="S44" s="146" t="s">
+      <c r="R44" s="162"/>
+      <c r="S44" s="161" t="s">
         <v>108</v>
       </c>
-      <c r="T44" s="147"/>
-      <c r="U44" s="146" t="s">
+      <c r="T44" s="162"/>
+      <c r="U44" s="161" t="s">
         <v>168</v>
       </c>
-      <c r="V44" s="147"/>
-      <c r="W44" s="153" t="s">
+      <c r="V44" s="162"/>
+      <c r="W44" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="X44" s="139" t="s">
+      <c r="X44" s="175" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="2:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="B45" s="135"/>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B45" s="170"/>
       <c r="C45" s="70" t="s">
         <v>6</v>
       </c>
@@ -5433,9 +6049,9 @@
       <c r="J45" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="K45" s="138"/>
-      <c r="L45" s="139"/>
-      <c r="N45" s="135"/>
+      <c r="K45" s="174"/>
+      <c r="L45" s="175"/>
+      <c r="N45" s="170"/>
       <c r="O45" s="70" t="s">
         <v>6</v>
       </c>
@@ -5460,10 +6076,10 @@
       <c r="V45" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="W45" s="154"/>
-      <c r="X45" s="139"/>
-    </row>
-    <row r="46" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="W45" s="164"/>
+      <c r="X45" s="175"/>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B46" s="69" t="s">
         <v>158</v>
       </c>
@@ -5523,7 +6139,7 @@
       <c r="W46" s="71"/>
       <c r="X46" s="72"/>
     </row>
-    <row r="47" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B47" s="69" t="s">
         <v>159</v>
       </c>
@@ -5583,7 +6199,7 @@
       <c r="W47" s="71"/>
       <c r="X47" s="72"/>
     </row>
-    <row r="48" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B48" s="69" t="s">
         <v>113</v>
       </c>
@@ -5643,7 +6259,7 @@
       <c r="W48" s="71"/>
       <c r="X48" s="72"/>
     </row>
-    <row r="49" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B49" s="69" t="s">
         <v>131</v>
       </c>
@@ -5703,7 +6319,7 @@
       <c r="W49" s="71"/>
       <c r="X49" s="72"/>
     </row>
-    <row r="50" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B50" s="69" t="s">
         <v>152</v>
       </c>
@@ -5763,7 +6379,7 @@
       <c r="W50" s="71"/>
       <c r="X50" s="72"/>
     </row>
-    <row r="51" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51" s="69" t="s">
         <v>153</v>
       </c>
@@ -5823,7 +6439,7 @@
       <c r="W51" s="71"/>
       <c r="X51" s="72"/>
     </row>
-    <row r="52" spans="2:24" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="78" t="s">
         <v>190</v>
       </c>
@@ -5883,7 +6499,7 @@
       <c r="W52" s="79"/>
       <c r="X52" s="84"/>
     </row>
-    <row r="53" spans="2:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:24" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="68" t="s">
         <v>194</v>
       </c>
@@ -5939,7 +6555,7 @@
         <v>0.26809651474530799</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C54" s="42"/>
       <c r="D54" s="42"/>
       <c r="E54" s="42"/>
@@ -5957,85 +6573,85 @@
       <c r="U54" s="42"/>
       <c r="V54" s="42"/>
     </row>
-    <row r="55" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B56" s="134"/>
-      <c r="C56" s="136" t="s">
+    <row r="55" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B56" s="169"/>
+      <c r="C56" s="171" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="136"/>
-      <c r="E56" s="136"/>
-      <c r="F56" s="136"/>
-      <c r="G56" s="136"/>
-      <c r="H56" s="136"/>
-      <c r="I56" s="136"/>
-      <c r="J56" s="136"/>
-      <c r="K56" s="136"/>
-      <c r="L56" s="137"/>
-      <c r="N56" s="134"/>
-      <c r="O56" s="148" t="s">
+      <c r="D56" s="171"/>
+      <c r="E56" s="171"/>
+      <c r="F56" s="171"/>
+      <c r="G56" s="171"/>
+      <c r="H56" s="171"/>
+      <c r="I56" s="171"/>
+      <c r="J56" s="171"/>
+      <c r="K56" s="171"/>
+      <c r="L56" s="172"/>
+      <c r="N56" s="169"/>
+      <c r="O56" s="167" t="s">
         <v>197</v>
       </c>
-      <c r="P56" s="149"/>
-      <c r="Q56" s="149"/>
-      <c r="R56" s="149"/>
-      <c r="S56" s="149"/>
-      <c r="T56" s="149"/>
-      <c r="U56" s="149"/>
-      <c r="V56" s="149"/>
-      <c r="W56" s="149"/>
-      <c r="X56" s="150"/>
-    </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B57" s="135"/>
-      <c r="C57" s="138" t="s">
+      <c r="P56" s="168"/>
+      <c r="Q56" s="168"/>
+      <c r="R56" s="168"/>
+      <c r="S56" s="168"/>
+      <c r="T56" s="168"/>
+      <c r="U56" s="168"/>
+      <c r="V56" s="168"/>
+      <c r="W56" s="168"/>
+      <c r="X56" s="173"/>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B57" s="170"/>
+      <c r="C57" s="174" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="138"/>
-      <c r="E57" s="138" t="s">
+      <c r="D57" s="174"/>
+      <c r="E57" s="174" t="s">
         <v>167</v>
       </c>
-      <c r="F57" s="138"/>
-      <c r="G57" s="138" t="s">
+      <c r="F57" s="174"/>
+      <c r="G57" s="174" t="s">
         <v>108</v>
       </c>
-      <c r="H57" s="138"/>
-      <c r="I57" s="138" t="s">
+      <c r="H57" s="174"/>
+      <c r="I57" s="174" t="s">
         <v>168</v>
       </c>
-      <c r="J57" s="138"/>
-      <c r="K57" s="138" t="s">
+      <c r="J57" s="174"/>
+      <c r="K57" s="174" t="s">
         <v>157</v>
       </c>
-      <c r="L57" s="139" t="s">
+      <c r="L57" s="175" t="s">
         <v>156</v>
       </c>
-      <c r="N57" s="135"/>
-      <c r="O57" s="146" t="s">
+      <c r="N57" s="170"/>
+      <c r="O57" s="161" t="s">
         <v>106</v>
       </c>
-      <c r="P57" s="147"/>
-      <c r="Q57" s="146" t="s">
+      <c r="P57" s="162"/>
+      <c r="Q57" s="161" t="s">
         <v>167</v>
       </c>
-      <c r="R57" s="147"/>
-      <c r="S57" s="146" t="s">
+      <c r="R57" s="162"/>
+      <c r="S57" s="161" t="s">
         <v>108</v>
       </c>
-      <c r="T57" s="147"/>
-      <c r="U57" s="146" t="s">
+      <c r="T57" s="162"/>
+      <c r="U57" s="161" t="s">
         <v>168</v>
       </c>
-      <c r="V57" s="147"/>
-      <c r="W57" s="153" t="s">
+      <c r="V57" s="162"/>
+      <c r="W57" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="X57" s="139" t="s">
+      <c r="X57" s="175" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="2:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="B58" s="135"/>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B58" s="170"/>
       <c r="C58" s="70" t="s">
         <v>6</v>
       </c>
@@ -6060,9 +6676,9 @@
       <c r="J58" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="K58" s="138"/>
-      <c r="L58" s="139"/>
-      <c r="N58" s="135"/>
+      <c r="K58" s="174"/>
+      <c r="L58" s="175"/>
+      <c r="N58" s="170"/>
       <c r="O58" s="70" t="s">
         <v>6</v>
       </c>
@@ -6087,10 +6703,10 @@
       <c r="V58" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="W58" s="154"/>
-      <c r="X58" s="139"/>
-    </row>
-    <row r="59" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="W58" s="164"/>
+      <c r="X58" s="175"/>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59" s="69" t="s">
         <v>158</v>
       </c>
@@ -6150,7 +6766,7 @@
       <c r="W59" s="71"/>
       <c r="X59" s="72"/>
     </row>
-    <row r="60" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B60" s="69" t="s">
         <v>159</v>
       </c>
@@ -6210,7 +6826,7 @@
       <c r="W60" s="71"/>
       <c r="X60" s="72"/>
     </row>
-    <row r="61" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B61" s="69" t="s">
         <v>113</v>
       </c>
@@ -6270,7 +6886,7 @@
       <c r="W61" s="71"/>
       <c r="X61" s="72"/>
     </row>
-    <row r="62" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B62" s="69" t="s">
         <v>131</v>
       </c>
@@ -6330,7 +6946,7 @@
       <c r="W62" s="71"/>
       <c r="X62" s="72"/>
     </row>
-    <row r="63" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B63" s="69" t="s">
         <v>152</v>
       </c>
@@ -6390,7 +7006,7 @@
       <c r="W63" s="71"/>
       <c r="X63" s="72"/>
     </row>
-    <row r="64" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B64" s="69" t="s">
         <v>153</v>
       </c>
@@ -6450,7 +7066,7 @@
       <c r="W64" s="71"/>
       <c r="X64" s="72"/>
     </row>
-    <row r="65" spans="2:24" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="78" t="s">
         <v>190</v>
       </c>
@@ -6510,7 +7126,7 @@
       <c r="W65" s="79"/>
       <c r="X65" s="84"/>
     </row>
-    <row r="66" spans="2:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:24" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="68" t="s">
         <v>194</v>
       </c>
@@ -6566,7 +7182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C67" s="42"/>
       <c r="D67" s="42"/>
       <c r="E67" s="42"/>
@@ -6584,87 +7200,87 @@
       <c r="U67" s="42"/>
       <c r="V67" s="42"/>
     </row>
-    <row r="68" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F68" s="67"/>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B69" s="134"/>
-      <c r="C69" s="136" t="s">
+    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B69" s="169"/>
+      <c r="C69" s="171" t="s">
         <v>196</v>
       </c>
-      <c r="D69" s="136"/>
-      <c r="E69" s="136"/>
-      <c r="F69" s="136"/>
-      <c r="G69" s="136"/>
-      <c r="H69" s="136"/>
-      <c r="I69" s="136"/>
-      <c r="J69" s="136"/>
-      <c r="K69" s="136"/>
-      <c r="L69" s="137"/>
-      <c r="N69" s="134"/>
-      <c r="O69" s="148" t="s">
+      <c r="D69" s="171"/>
+      <c r="E69" s="171"/>
+      <c r="F69" s="171"/>
+      <c r="G69" s="171"/>
+      <c r="H69" s="171"/>
+      <c r="I69" s="171"/>
+      <c r="J69" s="171"/>
+      <c r="K69" s="171"/>
+      <c r="L69" s="172"/>
+      <c r="N69" s="169"/>
+      <c r="O69" s="167" t="s">
         <v>195</v>
       </c>
-      <c r="P69" s="149"/>
-      <c r="Q69" s="149"/>
-      <c r="R69" s="149"/>
-      <c r="S69" s="149"/>
-      <c r="T69" s="149"/>
-      <c r="U69" s="149"/>
-      <c r="V69" s="149"/>
-      <c r="W69" s="149"/>
-      <c r="X69" s="150"/>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B70" s="135"/>
-      <c r="C70" s="138" t="s">
+      <c r="P69" s="168"/>
+      <c r="Q69" s="168"/>
+      <c r="R69" s="168"/>
+      <c r="S69" s="168"/>
+      <c r="T69" s="168"/>
+      <c r="U69" s="168"/>
+      <c r="V69" s="168"/>
+      <c r="W69" s="168"/>
+      <c r="X69" s="173"/>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B70" s="170"/>
+      <c r="C70" s="174" t="s">
         <v>106</v>
       </c>
-      <c r="D70" s="138"/>
-      <c r="E70" s="138" t="s">
+      <c r="D70" s="174"/>
+      <c r="E70" s="174" t="s">
         <v>167</v>
       </c>
-      <c r="F70" s="138"/>
-      <c r="G70" s="138" t="s">
+      <c r="F70" s="174"/>
+      <c r="G70" s="174" t="s">
         <v>108</v>
       </c>
-      <c r="H70" s="138"/>
-      <c r="I70" s="138" t="s">
+      <c r="H70" s="174"/>
+      <c r="I70" s="174" t="s">
         <v>168</v>
       </c>
-      <c r="J70" s="138"/>
-      <c r="K70" s="138" t="s">
+      <c r="J70" s="174"/>
+      <c r="K70" s="174" t="s">
         <v>157</v>
       </c>
-      <c r="L70" s="139" t="s">
+      <c r="L70" s="175" t="s">
         <v>156</v>
       </c>
-      <c r="N70" s="135"/>
-      <c r="O70" s="146" t="s">
+      <c r="N70" s="170"/>
+      <c r="O70" s="161" t="s">
         <v>106</v>
       </c>
-      <c r="P70" s="147"/>
-      <c r="Q70" s="146" t="s">
+      <c r="P70" s="162"/>
+      <c r="Q70" s="161" t="s">
         <v>167</v>
       </c>
-      <c r="R70" s="147"/>
-      <c r="S70" s="146" t="s">
+      <c r="R70" s="162"/>
+      <c r="S70" s="161" t="s">
         <v>108</v>
       </c>
-      <c r="T70" s="147"/>
-      <c r="U70" s="146" t="s">
+      <c r="T70" s="162"/>
+      <c r="U70" s="161" t="s">
         <v>168</v>
       </c>
-      <c r="V70" s="147"/>
-      <c r="W70" s="153" t="s">
+      <c r="V70" s="162"/>
+      <c r="W70" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="X70" s="139" t="s">
+      <c r="X70" s="175" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="2:24" ht="16" x14ac:dyDescent="0.2">
-      <c r="B71" s="135"/>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B71" s="170"/>
       <c r="C71" s="70" t="s">
         <v>6</v>
       </c>
@@ -6689,9 +7305,9 @@
       <c r="J71" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="K71" s="138"/>
-      <c r="L71" s="139"/>
-      <c r="N71" s="135"/>
+      <c r="K71" s="174"/>
+      <c r="L71" s="175"/>
+      <c r="N71" s="170"/>
       <c r="O71" s="70" t="s">
         <v>6</v>
       </c>
@@ -6716,10 +7332,10 @@
       <c r="V71" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="W71" s="154"/>
-      <c r="X71" s="139"/>
-    </row>
-    <row r="72" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+      <c r="W71" s="164"/>
+      <c r="X71" s="175"/>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B72" s="69" t="s">
         <v>158</v>
       </c>
@@ -6779,7 +7395,7 @@
       <c r="W72" s="71"/>
       <c r="X72" s="72"/>
     </row>
-    <row r="73" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B73" s="69" t="s">
         <v>159</v>
       </c>
@@ -6839,7 +7455,7 @@
       <c r="W73" s="71"/>
       <c r="X73" s="72"/>
     </row>
-    <row r="74" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B74" s="69" t="s">
         <v>113</v>
       </c>
@@ -6899,7 +7515,7 @@
       <c r="W74" s="71"/>
       <c r="X74" s="72"/>
     </row>
-    <row r="75" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B75" s="69" t="s">
         <v>131</v>
       </c>
@@ -6959,7 +7575,7 @@
       <c r="W75" s="71"/>
       <c r="X75" s="72"/>
     </row>
-    <row r="76" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B76" s="69" t="s">
         <v>152</v>
       </c>
@@ -7019,7 +7635,7 @@
       <c r="W76" s="71"/>
       <c r="X76" s="72"/>
     </row>
-    <row r="77" spans="2:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B77" s="69" t="s">
         <v>153</v>
       </c>
@@ -7079,7 +7695,7 @@
       <c r="W77" s="71"/>
       <c r="X77" s="72"/>
     </row>
-    <row r="78" spans="2:24" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="69" t="s">
         <v>190</v>
       </c>
@@ -7139,7 +7755,7 @@
       <c r="W78" s="79"/>
       <c r="X78" s="84"/>
     </row>
-    <row r="79" spans="2:24" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="78"/>
       <c r="C79" s="79"/>
       <c r="D79" s="79"/>
@@ -7179,7 +7795,7 @@
         <v>0.16963528413910001</v>
       </c>
     </row>
-    <row r="80" spans="2:24" ht="32" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" s="68" t="s">
         <v>194</v>
       </c>
@@ -7208,43 +7824,43 @@
         <v>0.65789473684210498</v>
       </c>
     </row>
-    <row r="85" spans="6:21" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="6:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O86" s="157"/>
-      <c r="P86" s="148" t="s">
+    <row r="85" spans="6:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="6:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O86" s="158"/>
+      <c r="P86" s="167" t="s">
         <v>202</v>
       </c>
-      <c r="Q86" s="149"/>
-      <c r="R86" s="149"/>
-      <c r="S86" s="149"/>
-      <c r="T86" s="155"/>
-      <c r="U86" s="156"/>
-    </row>
-    <row r="87" spans="6:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q86" s="168"/>
+      <c r="R86" s="168"/>
+      <c r="S86" s="168"/>
+      <c r="T86" s="111"/>
+      <c r="U86" s="112"/>
+    </row>
+    <row r="87" spans="6:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87"/>
-      <c r="O87" s="158"/>
-      <c r="P87" s="146" t="s">
+      <c r="O87" s="159"/>
+      <c r="P87" s="161" t="s">
         <v>106</v>
       </c>
-      <c r="Q87" s="147"/>
-      <c r="R87" s="146" t="s">
+      <c r="Q87" s="162"/>
+      <c r="R87" s="161" t="s">
         <v>203</v>
       </c>
-      <c r="S87" s="147"/>
-      <c r="T87" s="153" t="s">
+      <c r="S87" s="162"/>
+      <c r="T87" s="163" t="s">
         <v>157</v>
       </c>
-      <c r="U87" s="151" t="s">
+      <c r="U87" s="165" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="6:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F88"/>
       <c r="G88"/>
       <c r="H88"/>
-      <c r="O88" s="159"/>
+      <c r="O88" s="160"/>
       <c r="P88" s="70" t="s">
         <v>6</v>
       </c>
@@ -7257,20 +7873,20 @@
       <c r="S88" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="T88" s="154"/>
-      <c r="U88" s="152"/>
-    </row>
-    <row r="89" spans="6:21" ht="16" x14ac:dyDescent="0.2">
+      <c r="T88" s="164"/>
+      <c r="U88" s="166"/>
+    </row>
+    <row r="89" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F89"/>
       <c r="G89"/>
       <c r="H89"/>
       <c r="O89" s="69" t="s">
         <v>158</v>
       </c>
-      <c r="P89" s="145">
+      <c r="P89" s="46">
         <v>832</v>
       </c>
-      <c r="Q89" s="145">
+      <c r="Q89" s="46">
         <v>41.3930348258706</v>
       </c>
       <c r="R89" s="46">
@@ -7286,17 +7902,17 @@
         <v>2.78304138476059E-2</v>
       </c>
     </row>
-    <row r="90" spans="6:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F90"/>
       <c r="G90"/>
       <c r="H90"/>
       <c r="O90" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="P90" s="145">
+      <c r="P90" s="46">
         <v>374</v>
       </c>
-      <c r="Q90" s="145">
+      <c r="Q90" s="46">
         <v>18.6069651741293</v>
       </c>
       <c r="R90" s="46">
@@ -7312,17 +7928,17 @@
         <v>0.68095921289037598</v>
       </c>
     </row>
-    <row r="91" spans="6:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F91"/>
       <c r="G91"/>
       <c r="H91"/>
       <c r="O91" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="P91" s="145">
+      <c r="P91" s="46">
         <v>221</v>
       </c>
-      <c r="Q91" s="145">
+      <c r="Q91" s="46">
         <v>10.9950248756218</v>
       </c>
       <c r="R91" s="46">
@@ -7338,17 +7954,17 @@
         <v>0.78315782838171699</v>
       </c>
     </row>
-    <row r="92" spans="6:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F92"/>
       <c r="G92"/>
       <c r="H92"/>
       <c r="O92" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="P92" s="145">
+      <c r="P92" s="46">
         <v>506</v>
       </c>
-      <c r="Q92" s="145">
+      <c r="Q92" s="46">
         <v>25.174129353233798</v>
       </c>
       <c r="R92" s="46">
@@ -7364,17 +7980,17 @@
         <v>2.33476535897229E-4</v>
       </c>
     </row>
-    <row r="93" spans="6:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F93"/>
       <c r="G93"/>
       <c r="H93"/>
       <c r="O93" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="P93" s="145">
+      <c r="P93" s="46">
         <v>23</v>
       </c>
-      <c r="Q93" s="145">
+      <c r="Q93" s="46">
         <v>1.14427860696517</v>
       </c>
       <c r="R93" s="46">
@@ -7390,17 +8006,17 @@
         <v>0.90927803347041802</v>
       </c>
     </row>
-    <row r="94" spans="6:21" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F94"/>
       <c r="G94"/>
       <c r="H94"/>
       <c r="O94" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="P94" s="145">
+      <c r="P94" s="46">
         <v>44</v>
       </c>
-      <c r="Q94" s="145">
+      <c r="Q94" s="46">
         <v>2.1890547263681501</v>
       </c>
       <c r="R94" s="46">
@@ -7416,10 +8032,10 @@
         <v>0.46933067221630598</v>
       </c>
     </row>
-    <row r="95" spans="6:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="6:21" x14ac:dyDescent="0.25">
       <c r="O95" s="69"/>
-      <c r="P95" s="145"/>
-      <c r="Q95" s="145"/>
+      <c r="P95" s="46"/>
+      <c r="Q95" s="46"/>
       <c r="R95" s="46">
         <v>52</v>
       </c>
@@ -7429,60 +8045,60 @@
       <c r="T95" s="71"/>
       <c r="U95" s="72"/>
     </row>
-    <row r="97" spans="15:21" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O98" s="167"/>
-      <c r="P98" s="179" t="s">
+    <row r="97" spans="15:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="15:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O98" s="145"/>
+      <c r="P98" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="Q98" s="178"/>
-      <c r="R98" s="178"/>
-      <c r="S98" s="178"/>
-      <c r="T98" s="160"/>
-      <c r="U98" s="161"/>
-    </row>
-    <row r="99" spans="15:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O99" s="168"/>
-      <c r="P99" s="170" t="s">
+      <c r="Q98" s="157"/>
+      <c r="R98" s="157"/>
+      <c r="S98" s="157"/>
+      <c r="T98" s="113"/>
+      <c r="U98" s="114"/>
+    </row>
+    <row r="99" spans="15:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O99" s="146"/>
+      <c r="P99" s="148" t="s">
         <v>106</v>
       </c>
-      <c r="Q99" s="171"/>
-      <c r="R99" s="172" t="s">
+      <c r="Q99" s="149"/>
+      <c r="R99" s="150" t="s">
         <v>204</v>
       </c>
-      <c r="S99" s="173"/>
-      <c r="T99" s="175" t="s">
+      <c r="S99" s="151"/>
+      <c r="T99" s="152" t="s">
         <v>157</v>
       </c>
-      <c r="U99" s="177" t="s">
+      <c r="U99" s="154" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="15:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="O100" s="169"/>
-      <c r="P100" s="162" t="s">
+    <row r="100" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O100" s="147"/>
+      <c r="P100" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="Q100" s="162" t="s">
+      <c r="Q100" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="R100" s="162" t="s">
+      <c r="R100" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="S100" s="162" t="s">
+      <c r="S100" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="T100" s="174"/>
-      <c r="U100" s="176"/>
-    </row>
-    <row r="101" spans="15:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="O101" s="163" t="s">
+      <c r="T100" s="153"/>
+      <c r="U100" s="155"/>
+    </row>
+    <row r="101" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O101" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="P101" s="164">
+      <c r="P101" s="117">
         <v>832</v>
       </c>
-      <c r="Q101" s="164">
+      <c r="Q101" s="117">
         <v>41.393030000000003</v>
       </c>
       <c r="R101" s="46">
@@ -7498,14 +8114,14 @@
         <v>1.0421978151965499E-2</v>
       </c>
     </row>
-    <row r="102" spans="15:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="O102" s="163" t="s">
+    <row r="102" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O102" s="116" t="s">
         <v>159</v>
       </c>
-      <c r="P102" s="164">
+      <c r="P102" s="117">
         <v>374</v>
       </c>
-      <c r="Q102" s="164">
+      <c r="Q102" s="117">
         <v>18.60697</v>
       </c>
       <c r="R102" s="46">
@@ -7521,14 +8137,14 @@
         <v>0.81990985746780798</v>
       </c>
     </row>
-    <row r="103" spans="15:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="O103" s="163" t="s">
+    <row r="103" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O103" s="116" t="s">
         <v>113</v>
       </c>
-      <c r="P103" s="164">
+      <c r="P103" s="117">
         <v>221</v>
       </c>
-      <c r="Q103" s="164">
+      <c r="Q103" s="117">
         <v>10.99502</v>
       </c>
       <c r="R103" s="46">
@@ -7544,14 +8160,14 @@
         <v>0.93543130332291202</v>
       </c>
     </row>
-    <row r="104" spans="15:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="O104" s="163" t="s">
+    <row r="104" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O104" s="116" t="s">
         <v>131</v>
       </c>
-      <c r="P104" s="164">
+      <c r="P104" s="117">
         <v>506</v>
       </c>
-      <c r="Q104" s="164">
+      <c r="Q104" s="117">
         <v>25.174130000000002</v>
       </c>
       <c r="R104" s="46">
@@ -7563,18 +8179,18 @@
       <c r="T104" s="46">
         <v>1.2665832290362899</v>
       </c>
-      <c r="U104" s="180">
+      <c r="U104" s="120">
         <v>8.0000000000000007E-5</v>
       </c>
     </row>
-    <row r="105" spans="15:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="O105" s="163" t="s">
+    <row r="105" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O105" s="116" t="s">
         <v>152</v>
       </c>
-      <c r="P105" s="164">
+      <c r="P105" s="117">
         <v>23</v>
       </c>
-      <c r="Q105" s="164">
+      <c r="Q105" s="117">
         <v>1.144279</v>
       </c>
       <c r="R105" s="46">
@@ -7590,14 +8206,14 @@
         <v>0.90694872373262603</v>
       </c>
     </row>
-    <row r="106" spans="15:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="O106" s="163" t="s">
+    <row r="106" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O106" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="P106" s="164">
+      <c r="P106" s="117">
         <v>44</v>
       </c>
-      <c r="Q106" s="164">
+      <c r="Q106" s="117">
         <v>2.1890550000000002</v>
       </c>
       <c r="R106" s="46">
@@ -7613,88 +8229,27 @@
         <v>0.41201192454214303</v>
       </c>
     </row>
-    <row r="107" spans="15:21" x14ac:dyDescent="0.2">
-      <c r="O107" s="163"/>
-      <c r="P107" s="164"/>
-      <c r="Q107" s="164"/>
-      <c r="R107" s="164"/>
-      <c r="S107" s="164"/>
-      <c r="T107" s="165"/>
-      <c r="U107" s="166"/>
+    <row r="107" spans="15:21" x14ac:dyDescent="0.25">
+      <c r="O107" s="116"/>
+      <c r="P107" s="117"/>
+      <c r="Q107" s="117"/>
+      <c r="R107" s="117"/>
+      <c r="S107" s="117"/>
+      <c r="T107" s="118"/>
+      <c r="U107" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="O98:O100"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="R99:S99"/>
-    <mergeCell ref="T99:T100"/>
-    <mergeCell ref="U99:U100"/>
-    <mergeCell ref="P98:S98"/>
-    <mergeCell ref="O86:O88"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="T87:T88"/>
-    <mergeCell ref="U87:U88"/>
-    <mergeCell ref="P86:S86"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:L69"/>
-    <mergeCell ref="N69:N71"/>
-    <mergeCell ref="O69:X69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="S70:T70"/>
-    <mergeCell ref="U70:V70"/>
-    <mergeCell ref="W70:W71"/>
-    <mergeCell ref="X70:X71"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:L56"/>
-    <mergeCell ref="N56:N58"/>
-    <mergeCell ref="O56:X56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="W57:W58"/>
-    <mergeCell ref="X57:X58"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="O43:X43"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="X44:X45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:L43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="K4:P4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="R17:R19"/>
+    <mergeCell ref="S17:X17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="X18:X19"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="L31:L32"/>
     <mergeCell ref="I31:J31"/>
@@ -7718,16 +8273,77 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="J17:J19"/>
     <mergeCell ref="K17:P17"/>
-    <mergeCell ref="R17:R19"/>
-    <mergeCell ref="S17:X17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="R4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="O43:X43"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="X44:X45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:L43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:L56"/>
+    <mergeCell ref="N56:N58"/>
+    <mergeCell ref="O56:X56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="O57:P57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="W57:W58"/>
+    <mergeCell ref="X57:X58"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:L69"/>
+    <mergeCell ref="N69:N71"/>
+    <mergeCell ref="O69:X69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="S70:T70"/>
+    <mergeCell ref="U70:V70"/>
+    <mergeCell ref="W70:W71"/>
+    <mergeCell ref="X70:X71"/>
+    <mergeCell ref="O98:O100"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="R99:S99"/>
+    <mergeCell ref="T99:T100"/>
+    <mergeCell ref="U99:U100"/>
+    <mergeCell ref="P98:S98"/>
+    <mergeCell ref="O86:O88"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="T87:T88"/>
+    <mergeCell ref="U87:U88"/>
+    <mergeCell ref="P86:S86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" copies="2" r:id="rId1"/>
@@ -7739,21 +8355,21 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
@@ -7773,7 +8389,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -7793,7 +8409,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -7813,7 +8429,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -7833,7 +8449,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -7851,7 +8467,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -7869,7 +8485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -7887,7 +8503,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -7903,7 +8519,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -7919,7 +8535,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -7935,7 +8551,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -7951,7 +8567,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -7967,7 +8583,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -7983,7 +8599,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -7997,7 +8613,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -8011,7 +8627,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -8025,7 +8641,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -8039,7 +8655,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -8053,7 +8669,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -8067,7 +8683,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -8081,7 +8697,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -8095,7 +8711,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -8107,7 +8723,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
@@ -8119,7 +8735,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>52</v>
       </c>
@@ -8131,7 +8747,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
@@ -8143,7 +8759,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -8155,7 +8771,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>58</v>
       </c>
@@ -8167,7 +8783,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -8179,7 +8795,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>62</v>
       </c>
@@ -8191,7 +8807,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
@@ -8203,7 +8819,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -8215,7 +8831,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
@@ -8227,7 +8843,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>69</v>
       </c>
@@ -8239,7 +8855,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
@@ -8251,7 +8867,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>73</v>
       </c>
@@ -8263,7 +8879,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>75</v>
       </c>
@@ -8275,7 +8891,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>77</v>
       </c>
@@ -8287,7 +8903,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
@@ -8299,7 +8915,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
@@ -8311,7 +8927,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
@@ -8323,7 +8939,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>85</v>
       </c>
@@ -8335,7 +8951,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
@@ -8347,7 +8963,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>89</v>
       </c>
@@ -8359,7 +8975,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>90</v>
       </c>
@@ -8371,7 +8987,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
@@ -8383,7 +8999,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>94</v>
       </c>
@@ -8395,7 +9011,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>96</v>
       </c>
@@ -8405,7 +9021,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
@@ -8415,7 +9031,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>98</v>
       </c>
@@ -8425,7 +9041,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>99</v>
       </c>
@@ -8435,7 +9051,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>100</v>
       </c>
@@ -8445,12 +9061,12 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I54" s="10" t="s">
         <v>110</v>
       </c>
@@ -8474,13 +9090,13 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>130</v>
       </c>
@@ -8491,7 +9107,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C3" s="10" t="s">
         <v>103</v>
       </c>
@@ -8499,7 +9115,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="s">
         <v>104</v>
       </c>
@@ -8507,7 +9123,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>127</v>
       </c>
@@ -8518,7 +9134,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>161</v>
       </c>
@@ -8545,80 +9161,80 @@
   <dimension ref="B2:P29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="111"/>
-      <c r="C4" s="114" t="s">
+    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="132"/>
+      <c r="C4" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="D4" s="137" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="116" t="s">
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="117" t="s">
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="119"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="112"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="120" t="s">
+      <c r="M4" s="138"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="140"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="133"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="121"/>
-      <c r="F5" s="122" t="s">
+      <c r="E5" s="142"/>
+      <c r="F5" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="123"/>
-      <c r="H5" s="120" t="s">
+      <c r="G5" s="143"/>
+      <c r="H5" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="121"/>
-      <c r="J5" s="122" t="s">
+      <c r="I5" s="142"/>
+      <c r="J5" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="123"/>
-      <c r="L5" s="124" t="s">
+      <c r="K5" s="143"/>
+      <c r="L5" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="121"/>
-      <c r="N5" s="122" t="s">
+      <c r="M5" s="142"/>
+      <c r="N5" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="129"/>
-    </row>
-    <row r="6" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="113"/>
+      <c r="O5" s="127"/>
+    </row>
+    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="134"/>
       <c r="C6" s="37" t="s">
         <v>6</v>
       </c>
@@ -8659,7 +9275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
         <v>174</v>
       </c>
@@ -8695,7 +9311,7 @@
         <v>71.726190476190396</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="27" t="s">
         <v>173</v>
       </c>
@@ -8731,7 +9347,7 @@
         <v>71.525096525096501</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
@@ -8749,7 +9365,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="18"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
         <v>175</v>
       </c>
@@ -8785,7 +9401,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="23" t="s">
         <v>172</v>
       </c>
@@ -8821,7 +9437,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="23" t="s">
         <v>10</v>
       </c>
@@ -8857,7 +9473,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="22" t="s">
         <v>11</v>
       </c>
@@ -8875,7 +9491,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="18"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
         <v>1</v>
       </c>
@@ -8911,7 +9527,7 @@
         <v>80.303030303030297</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="s">
         <v>0</v>
       </c>
@@ -8947,7 +9563,7 @@
         <v>69.296116504854297</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="22" t="s">
         <v>12</v>
       </c>
@@ -8965,7 +9581,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="18"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
         <v>106</v>
       </c>
@@ -9003,7 +9619,7 @@
         <v>67.875647668393697</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="23" t="s">
         <v>107</v>
       </c>
@@ -9041,7 +9657,7 @@
         <v>78.735632183907995</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
         <v>108</v>
       </c>
@@ -9079,7 +9695,7 @@
         <v>76.923076923076906</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="24" t="s">
         <v>109</v>
       </c>
@@ -9117,32 +9733,32 @@
         <v>66.978922716627594</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="142" t="s">
+    <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:16" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="178" t="s">
         <v>188</v>
       </c>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="144"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="180"/>
       <c r="H22" s="61"/>
     </row>
-    <row r="23" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="140" t="s">
+    <row r="23" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141" t="s">
+      <c r="D23" s="177"/>
+      <c r="E23" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="141"/>
+      <c r="F23" s="177"/>
       <c r="G23" s="43" t="s">
         <v>187</v>
       </c>
       <c r="H23" s="65"/>
     </row>
-    <row r="24" spans="2:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="51"/>
       <c r="C24" s="55" t="s">
         <v>6</v>
@@ -9165,7 +9781,7 @@
       <c r="O24" s="35"/>
       <c r="P24" s="35"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="52" t="s">
         <v>106</v>
       </c>
@@ -9191,7 +9807,7 @@
         <v>0.18324607329842932</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="52" t="s">
         <v>107</v>
       </c>
@@ -9217,7 +9833,7 @@
         <v>0.19653179190751446</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="52" t="s">
         <v>108</v>
       </c>
@@ -9243,7 +9859,7 @@
         <v>0.25217391304347825</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="53" t="s">
         <v>109</v>
       </c>
@@ -9266,7 +9882,7 @@
       </c>
       <c r="H28" s="63"/>
     </row>
-    <row r="29" spans="2:16" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="54" t="s">
         <v>185</v>
       </c>
@@ -9289,12 +9905,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:G4"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="L4:O4"/>
     <mergeCell ref="D5:E5"/>
@@ -9303,8 +9913,1352 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" copies="2" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF73D177-76B1-4AD0-B9D1-870D5C94EF3F}">
+  <dimension ref="A1:F94"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="L58" sqref="L58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="181" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="182"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="182"/>
+      <c r="E51" s="182"/>
+      <c r="F51" s="182"/>
+    </row>
+    <row r="52" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="185" t="s">
+        <v>330</v>
+      </c>
+      <c r="B52" s="186"/>
+      <c r="C52" s="186"/>
+      <c r="D52" s="186"/>
+      <c r="E52" s="186"/>
+      <c r="F52" s="187"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="183" t="s">
+        <v>211</v>
+      </c>
+      <c r="B54" s="183" t="s">
+        <v>251</v>
+      </c>
+      <c r="C54" s="183" t="s">
+        <v>279</v>
+      </c>
+      <c r="D54" s="183" t="s">
+        <v>298</v>
+      </c>
+      <c r="E54" s="183" t="s">
+        <v>317</v>
+      </c>
+      <c r="F54" s="183" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="183" t="s">
+        <v>212</v>
+      </c>
+      <c r="B55" s="183" t="s">
+        <v>252</v>
+      </c>
+      <c r="C55" s="183" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" s="183" t="s">
+        <v>299</v>
+      </c>
+      <c r="E55" s="183" t="s">
+        <v>274</v>
+      </c>
+      <c r="F55" s="183" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="183" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" s="183" t="s">
+        <v>253</v>
+      </c>
+      <c r="C56" s="183" t="s">
+        <v>280</v>
+      </c>
+      <c r="D56" s="183" t="s">
+        <v>300</v>
+      </c>
+      <c r="E56" s="183" t="s">
+        <v>318</v>
+      </c>
+      <c r="F56" s="183" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="183" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" s="183" t="s">
+        <v>254</v>
+      </c>
+      <c r="C57" s="183" t="s">
+        <v>281</v>
+      </c>
+      <c r="D57" s="183" t="s">
+        <v>301</v>
+      </c>
+      <c r="E57" s="183" t="s">
+        <v>257</v>
+      </c>
+      <c r="F57" s="183" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="183" t="s">
+        <v>215</v>
+      </c>
+      <c r="B58" s="183" t="s">
+        <v>255</v>
+      </c>
+      <c r="C58" s="183" t="s">
+        <v>282</v>
+      </c>
+      <c r="D58" s="183" t="s">
+        <v>302</v>
+      </c>
+      <c r="E58" s="183" t="s">
+        <v>319</v>
+      </c>
+      <c r="F58" s="183" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="183" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" s="183" t="s">
+        <v>256</v>
+      </c>
+      <c r="C59" s="183" t="s">
+        <v>283</v>
+      </c>
+      <c r="D59" s="183" t="s">
+        <v>303</v>
+      </c>
+      <c r="E59" s="183" t="s">
+        <v>320</v>
+      </c>
+      <c r="F59" s="183" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="183" t="s">
+        <v>217</v>
+      </c>
+      <c r="B60" s="183" t="s">
+        <v>257</v>
+      </c>
+      <c r="C60" s="183" t="s">
+        <v>284</v>
+      </c>
+      <c r="D60" s="183" t="s">
+        <v>304</v>
+      </c>
+      <c r="E60" s="183" t="s">
+        <v>321</v>
+      </c>
+      <c r="F60" s="183" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="183" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61" s="183" t="s">
+        <v>258</v>
+      </c>
+      <c r="C61" s="183" t="s">
+        <v>285</v>
+      </c>
+      <c r="D61" s="183" t="s">
+        <v>305</v>
+      </c>
+      <c r="E61" s="183" t="s">
+        <v>258</v>
+      </c>
+      <c r="F61" s="183" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="183" t="s">
+        <v>219</v>
+      </c>
+      <c r="B62" s="183" t="s">
+        <v>259</v>
+      </c>
+      <c r="C62" s="183" t="s">
+        <v>286</v>
+      </c>
+      <c r="D62" s="183" t="s">
+        <v>316</v>
+      </c>
+      <c r="E62" s="183" t="s">
+        <v>322</v>
+      </c>
+      <c r="F62" s="183" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="183" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63" s="183" t="s">
+        <v>260</v>
+      </c>
+      <c r="C63" s="183" t="s">
+        <v>287</v>
+      </c>
+      <c r="D63" s="183" t="s">
+        <v>315</v>
+      </c>
+      <c r="E63" s="183" t="s">
+        <v>323</v>
+      </c>
+      <c r="F63" s="183" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="183" t="s">
+        <v>221</v>
+      </c>
+      <c r="B64" s="183" t="s">
+        <v>261</v>
+      </c>
+      <c r="C64" s="183" t="s">
+        <v>288</v>
+      </c>
+      <c r="D64" s="183" t="s">
+        <v>314</v>
+      </c>
+      <c r="E64" s="184"/>
+      <c r="F64" s="184"/>
+    </row>
+    <row r="65" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="183" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" s="183" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" s="183" t="s">
+        <v>289</v>
+      </c>
+      <c r="D65" s="183" t="s">
+        <v>313</v>
+      </c>
+      <c r="E65" s="184"/>
+      <c r="F65" s="184"/>
+    </row>
+    <row r="66" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="183" t="s">
+        <v>223</v>
+      </c>
+      <c r="B66" s="183" t="s">
+        <v>263</v>
+      </c>
+      <c r="C66" s="183" t="s">
+        <v>290</v>
+      </c>
+      <c r="D66" s="183" t="s">
+        <v>312</v>
+      </c>
+      <c r="E66" s="184"/>
+      <c r="F66" s="184"/>
+    </row>
+    <row r="67" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="183" t="s">
+        <v>224</v>
+      </c>
+      <c r="B67" s="183" t="s">
+        <v>264</v>
+      </c>
+      <c r="C67" s="183" t="s">
+        <v>291</v>
+      </c>
+      <c r="D67" s="183" t="s">
+        <v>311</v>
+      </c>
+      <c r="E67" s="184"/>
+      <c r="F67" s="184"/>
+    </row>
+    <row r="68" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="183" t="s">
+        <v>225</v>
+      </c>
+      <c r="B68" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="C68" s="183" t="s">
+        <v>292</v>
+      </c>
+      <c r="D68" s="183" t="s">
+        <v>310</v>
+      </c>
+      <c r="E68" s="184"/>
+      <c r="F68" s="184"/>
+    </row>
+    <row r="69" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="183" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" s="183" t="s">
+        <v>266</v>
+      </c>
+      <c r="C69" s="183" t="s">
+        <v>293</v>
+      </c>
+      <c r="D69" s="183" t="s">
+        <v>309</v>
+      </c>
+      <c r="E69" s="184"/>
+      <c r="F69" s="184"/>
+    </row>
+    <row r="70" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="183" t="s">
+        <v>227</v>
+      </c>
+      <c r="B70" s="183" t="s">
+        <v>267</v>
+      </c>
+      <c r="C70" s="183" t="s">
+        <v>294</v>
+      </c>
+      <c r="D70" s="183" t="s">
+        <v>308</v>
+      </c>
+      <c r="E70" s="184"/>
+      <c r="F70" s="184"/>
+    </row>
+    <row r="71" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="183" t="s">
+        <v>228</v>
+      </c>
+      <c r="B71" s="183" t="s">
+        <v>268</v>
+      </c>
+      <c r="C71" s="183" t="s">
+        <v>295</v>
+      </c>
+      <c r="D71" s="183" t="s">
+        <v>307</v>
+      </c>
+      <c r="E71" s="184"/>
+      <c r="F71" s="184"/>
+    </row>
+    <row r="72" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="183" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72" s="183" t="s">
+        <v>269</v>
+      </c>
+      <c r="C72" s="183" t="s">
+        <v>296</v>
+      </c>
+      <c r="D72" s="183" t="s">
+        <v>250</v>
+      </c>
+      <c r="E72" s="184"/>
+      <c r="F72" s="184"/>
+    </row>
+    <row r="73" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="183" t="s">
+        <v>230</v>
+      </c>
+      <c r="B73" s="183" t="s">
+        <v>270</v>
+      </c>
+      <c r="C73" s="183" t="s">
+        <v>297</v>
+      </c>
+      <c r="D73" s="183" t="s">
+        <v>306</v>
+      </c>
+      <c r="E73" s="184"/>
+      <c r="F73" s="184"/>
+    </row>
+    <row r="74" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="183" t="s">
+        <v>231</v>
+      </c>
+      <c r="B74" s="183" t="s">
+        <v>271</v>
+      </c>
+      <c r="C74" s="184"/>
+      <c r="D74" s="184"/>
+      <c r="E74" s="184"/>
+      <c r="F74" s="184"/>
+    </row>
+    <row r="75" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="183" t="s">
+        <v>232</v>
+      </c>
+      <c r="B75" s="183" t="s">
+        <v>272</v>
+      </c>
+      <c r="C75" s="184"/>
+      <c r="D75" s="184"/>
+      <c r="E75" s="184"/>
+      <c r="F75" s="184"/>
+    </row>
+    <row r="76" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="183" t="s">
+        <v>233</v>
+      </c>
+      <c r="B76" s="183" t="s">
+        <v>273</v>
+      </c>
+      <c r="C76" s="184"/>
+      <c r="D76" s="184"/>
+      <c r="E76" s="184"/>
+      <c r="F76" s="184"/>
+    </row>
+    <row r="77" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="183" t="s">
+        <v>234</v>
+      </c>
+      <c r="B77" s="183" t="s">
+        <v>274</v>
+      </c>
+      <c r="C77" s="184"/>
+      <c r="D77" s="184"/>
+      <c r="E77" s="184"/>
+      <c r="F77" s="184"/>
+    </row>
+    <row r="78" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="183" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78" s="183" t="s">
+        <v>275</v>
+      </c>
+      <c r="C78" s="184"/>
+      <c r="D78" s="184"/>
+      <c r="E78" s="184"/>
+      <c r="F78" s="184"/>
+    </row>
+    <row r="79" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="183" t="s">
+        <v>236</v>
+      </c>
+      <c r="B79" s="183" t="s">
+        <v>276</v>
+      </c>
+      <c r="C79" s="184"/>
+      <c r="D79" s="184"/>
+      <c r="E79" s="184"/>
+      <c r="F79" s="184"/>
+    </row>
+    <row r="80" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="183" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" s="183" t="s">
+        <v>277</v>
+      </c>
+      <c r="C80" s="184"/>
+      <c r="D80" s="184"/>
+      <c r="E80" s="184"/>
+      <c r="F80" s="184"/>
+    </row>
+    <row r="81" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="183" t="s">
+        <v>238</v>
+      </c>
+      <c r="B81" s="183" t="s">
+        <v>278</v>
+      </c>
+      <c r="C81" s="184"/>
+      <c r="D81" s="184"/>
+      <c r="E81" s="184"/>
+      <c r="F81" s="184"/>
+    </row>
+    <row r="82" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="183" t="s">
+        <v>239</v>
+      </c>
+      <c r="B82" s="184"/>
+      <c r="C82" s="184"/>
+      <c r="D82" s="184"/>
+      <c r="E82" s="184"/>
+      <c r="F82" s="184"/>
+    </row>
+    <row r="83" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="183" t="s">
+        <v>240</v>
+      </c>
+      <c r="B83" s="184"/>
+      <c r="C83" s="184"/>
+      <c r="D83" s="184"/>
+      <c r="E83" s="184"/>
+      <c r="F83" s="184"/>
+    </row>
+    <row r="84" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="183" t="s">
+        <v>241</v>
+      </c>
+      <c r="B84" s="184"/>
+      <c r="C84" s="184"/>
+      <c r="D84" s="184"/>
+      <c r="E84" s="184"/>
+      <c r="F84" s="184"/>
+    </row>
+    <row r="85" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="183" t="s">
+        <v>242</v>
+      </c>
+      <c r="B85" s="184"/>
+      <c r="C85" s="184"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="184"/>
+      <c r="F85" s="184"/>
+    </row>
+    <row r="86" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="183" t="s">
+        <v>123</v>
+      </c>
+      <c r="B86" s="184"/>
+      <c r="C86" s="184"/>
+      <c r="D86" s="184"/>
+      <c r="E86" s="184"/>
+      <c r="F86" s="184"/>
+    </row>
+    <row r="87" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="183" t="s">
+        <v>243</v>
+      </c>
+      <c r="B87" s="184"/>
+      <c r="C87" s="184"/>
+      <c r="D87" s="184"/>
+      <c r="E87" s="184"/>
+      <c r="F87" s="184"/>
+    </row>
+    <row r="88" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="183" t="s">
+        <v>244</v>
+      </c>
+      <c r="B88" s="184"/>
+      <c r="C88" s="184"/>
+      <c r="D88" s="184"/>
+      <c r="E88" s="184"/>
+      <c r="F88" s="184"/>
+    </row>
+    <row r="89" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="183" t="s">
+        <v>245</v>
+      </c>
+      <c r="B89" s="184"/>
+      <c r="C89" s="184"/>
+      <c r="D89" s="184"/>
+      <c r="E89" s="184"/>
+      <c r="F89" s="184"/>
+    </row>
+    <row r="90" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="183" t="s">
+        <v>246</v>
+      </c>
+      <c r="B90" s="184"/>
+      <c r="C90" s="184"/>
+      <c r="D90" s="184"/>
+      <c r="E90" s="184"/>
+      <c r="F90" s="184"/>
+    </row>
+    <row r="91" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="183" t="s">
+        <v>247</v>
+      </c>
+      <c r="B91" s="184"/>
+      <c r="C91" s="184"/>
+      <c r="D91" s="184"/>
+      <c r="E91" s="184"/>
+      <c r="F91" s="184"/>
+    </row>
+    <row r="92" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="183" t="s">
+        <v>248</v>
+      </c>
+      <c r="B92" s="184"/>
+      <c r="C92" s="184"/>
+      <c r="D92" s="184"/>
+      <c r="E92" s="184"/>
+      <c r="F92" s="184"/>
+    </row>
+    <row r="93" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A93" s="183" t="s">
+        <v>249</v>
+      </c>
+      <c r="B93" s="184"/>
+      <c r="C93" s="184"/>
+      <c r="D93" s="184"/>
+      <c r="E93" s="184"/>
+      <c r="F93" s="184"/>
+    </row>
+    <row r="94" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="183" t="s">
+        <v>250</v>
+      </c>
+      <c r="B94" s="184"/>
+      <c r="C94" s="184"/>
+      <c r="D94" s="184"/>
+      <c r="E94" s="184"/>
+      <c r="F94" s="184"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A52:F52"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>